--- a/ketugou1110_userlist.xlsx
+++ b/ketugou1110_userlist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -258,6 +258,9 @@
       </rPr>
       <t>「アカウント権限」のプルダウンが初期設定で「一般」になっている</t>
     </r>
+  </si>
+  <si>
+    <t>名賀</t>
   </si>
   <si>
     <t>問題なし</t>
@@ -1124,21 +1127,6 @@
         <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
         <color indexed="16"/>
       </right>
       <top style="thin">
@@ -1158,6 +1146,21 @@
       </right>
       <top style="thin">
         <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
         <color indexed="14"/>
@@ -1270,37 +1273,37 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="59" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2616,100 +2619,104 @@
       <c r="C3" t="s" s="27">
         <v>22</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29">
+      <c r="D3" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E3" s="28">
         <v>45967</v>
       </c>
       <c r="F3" t="s" s="27">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="123.25" customHeight="1">
-      <c r="A4" t="s" s="30">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s" s="31">
+      <c r="A4" t="s" s="29">
         <v>26</v>
       </c>
-      <c r="C4" t="s" s="32">
+      <c r="B4" t="s" s="30">
         <v>27</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34">
+      <c r="C4" t="s" s="31">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s" s="31">
+        <v>23</v>
+      </c>
+      <c r="E4" s="32">
         <v>45971</v>
       </c>
-      <c r="F4" t="s" s="32">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s" s="32">
-        <v>24</v>
+      <c r="F4" t="s" s="31">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s" s="31">
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="18.3" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" ht="18.3" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" ht="18.3" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" ht="18.3" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" ht="18.3" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" ht="18.3" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" ht="18.3" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2735,11 +2742,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.2109" style="37" customWidth="1"/>
-    <col min="2" max="2" width="33.6016" style="37" customWidth="1"/>
-    <col min="3" max="3" width="25.4219" style="37" customWidth="1"/>
-    <col min="4" max="8" width="19.6016" style="37" customWidth="1"/>
-    <col min="9" max="16384" width="19.6016" style="37" customWidth="1"/>
+    <col min="1" max="1" width="23.2109" style="36" customWidth="1"/>
+    <col min="2" max="2" width="33.6016" style="36" customWidth="1"/>
+    <col min="3" max="3" width="25.4219" style="36" customWidth="1"/>
+    <col min="4" max="8" width="19.6016" style="36" customWidth="1"/>
+    <col min="9" max="16384" width="19.6016" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
@@ -2776,2373 +2783,2597 @@
       <c r="G2" t="s" s="24">
         <v>19</v>
       </c>
-      <c r="H2" s="38"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" ht="33.5" customHeight="1">
       <c r="A3" t="s" s="25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="26">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s" s="32">
         <v>30</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F3" t="s" s="32">
-        <v>23</v>
+      <c r="C3" t="s" s="31">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E3" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F3" t="s" s="31">
+        <v>24</v>
       </c>
       <c r="G3" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H3" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" ht="33.3" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" t="s" s="31">
+      <c r="A4" s="33"/>
+      <c r="B4" t="s" s="30">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s" s="39">
         <v>31</v>
       </c>
-      <c r="C4" t="s" s="39">
+      <c r="D4" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E4" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F4" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" ht="33.3" customHeight="1">
+      <c r="A5" s="33"/>
+      <c r="B5" t="s" s="30">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s" s="39">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E5" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F5" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H5" s="35"/>
+    </row>
+    <row r="6" ht="33.3" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" t="s" s="30">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E6" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F6" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" ht="33.3" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" t="s" s="30">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E7" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F7" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" ht="33.3" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" t="s" s="30">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E8" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F8" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" ht="33.3" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" t="s" s="30">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E9" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F9" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" ht="33.3" customHeight="1">
+      <c r="A10" s="33"/>
+      <c r="B10" t="s" s="30">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E10" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F10" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" ht="33.3" customHeight="1">
+      <c r="A11" s="33"/>
+      <c r="B11" t="s" s="30">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E11" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F11" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" ht="33.3" customHeight="1">
+      <c r="A12" s="33"/>
+      <c r="B12" t="s" s="30">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E12" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F12" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H12" s="35"/>
+    </row>
+    <row r="13" ht="33.3" customHeight="1">
+      <c r="A13" s="33"/>
+      <c r="B13" t="s" s="30">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E13" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F13" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" ht="33.3" customHeight="1">
+      <c r="A14" s="33"/>
+      <c r="B14" t="s" s="30">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E14" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F14" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" ht="33.3" customHeight="1">
+      <c r="A15" s="33"/>
+      <c r="B15" t="s" s="30">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E15" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F15" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H15" s="35"/>
+    </row>
+    <row r="16" ht="33.3" customHeight="1">
+      <c r="A16" s="33"/>
+      <c r="B16" t="s" s="30">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E16" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F16" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H16" s="35"/>
+    </row>
+    <row r="17" ht="33.3" customHeight="1">
+      <c r="A17" s="33"/>
+      <c r="B17" t="s" s="30">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E17" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F17" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="18" ht="33.3" customHeight="1">
+      <c r="A18" s="33"/>
+      <c r="B18" t="s" s="30">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E18" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F18" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" s="33"/>
+      <c r="B19" t="s" s="30">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s" s="39">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E19" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F19" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" ht="33.3" customHeight="1">
+      <c r="A20" t="s" s="29">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s" s="30">
         <v>30</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F4" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" ht="33.3" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" t="s" s="31">
+      <c r="C20" t="s" s="39">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E20" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F20" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" ht="33.3" customHeight="1">
+      <c r="A21" s="33"/>
+      <c r="B21" t="s" s="30">
         <v>32</v>
       </c>
-      <c r="C5" t="s" s="39">
+      <c r="C21" t="s" s="39">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E21" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F21" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H21" s="35"/>
+    </row>
+    <row r="22" ht="33.3" customHeight="1">
+      <c r="A22" s="33"/>
+      <c r="B22" t="s" s="30">
         <v>33</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F5" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" ht="33.3" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" t="s" s="31">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s" s="39">
+      <c r="C22" t="s" s="39">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E22" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F22" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" ht="33.3" customHeight="1">
+      <c r="A23" s="33"/>
+      <c r="B23" t="s" s="30">
         <v>35</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F6" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" ht="33.3" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" t="s" s="31">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s" s="39">
+      <c r="C23" t="s" s="39">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E23" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F23" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H23" s="35"/>
+    </row>
+    <row r="24" ht="33.3" customHeight="1">
+      <c r="A24" s="33"/>
+      <c r="B24" t="s" s="30">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="39">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E24" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F24" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H24" s="35"/>
+    </row>
+    <row r="25" ht="33.3" customHeight="1">
+      <c r="A25" s="33"/>
+      <c r="B25" t="s" s="30">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s" s="39">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E25" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F25" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H25" s="35"/>
+    </row>
+    <row r="26" ht="33.3" customHeight="1">
+      <c r="A26" s="33"/>
+      <c r="B26" t="s" s="30">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s" s="39">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E26" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F26" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H26" s="35"/>
+    </row>
+    <row r="27" ht="33.3" customHeight="1">
+      <c r="A27" s="33"/>
+      <c r="B27" t="s" s="30">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s" s="39">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E27" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F27" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H27" s="35"/>
+    </row>
+    <row r="28" ht="33.3" customHeight="1">
+      <c r="A28" s="33"/>
+      <c r="B28" t="s" s="30">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s" s="39">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E28" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F28" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H28" s="35"/>
+    </row>
+    <row r="29" ht="33.3" customHeight="1">
+      <c r="A29" s="33"/>
+      <c r="B29" t="s" s="30">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s" s="39">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E29" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F29" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H29" s="35"/>
+    </row>
+    <row r="30" ht="33.3" customHeight="1">
+      <c r="A30" s="33"/>
+      <c r="B30" t="s" s="30">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s" s="39">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E30" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F30" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H30" s="35"/>
+    </row>
+    <row r="31" ht="33.3" customHeight="1">
+      <c r="A31" s="33"/>
+      <c r="B31" t="s" s="30">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s" s="39">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E31" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F31" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H31" s="35"/>
+    </row>
+    <row r="32" ht="33.3" customHeight="1">
+      <c r="A32" s="33"/>
+      <c r="B32" t="s" s="30">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s" s="39">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E32" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F32" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H32" s="35"/>
+    </row>
+    <row r="33" ht="33.3" customHeight="1">
+      <c r="A33" s="33"/>
+      <c r="B33" t="s" s="30">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s" s="39">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E33" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F33" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H33" s="35"/>
+    </row>
+    <row r="34" ht="33.3" customHeight="1">
+      <c r="A34" s="33"/>
+      <c r="B34" t="s" s="30">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s" s="39">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E34" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F34" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H34" s="35"/>
+    </row>
+    <row r="35" ht="18.3" customHeight="1">
+      <c r="A35" s="33"/>
+      <c r="B35" t="s" s="30">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s" s="39">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E35" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F35" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H35" s="35"/>
+    </row>
+    <row r="36" ht="33.3" customHeight="1">
+      <c r="A36" t="s" s="29">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s" s="30">
         <v>35</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F7" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H7" s="33"/>
-    </row>
-    <row r="8" ht="33.3" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" t="s" s="31">
+      <c r="C36" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E36" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F36" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H36" s="35"/>
+    </row>
+    <row r="37" ht="18.3" customHeight="1">
+      <c r="A37" s="33"/>
+      <c r="B37" t="s" s="30">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s" s="39">
+        <v>57</v>
+      </c>
+      <c r="D37" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E37" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F37" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H37" s="35"/>
+    </row>
+    <row r="38" ht="33.3" customHeight="1">
+      <c r="A38" s="33"/>
+      <c r="B38" t="s" s="30">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s" s="39">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E38" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F38" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H38" s="35"/>
+    </row>
+    <row r="39" ht="33.3" customHeight="1">
+      <c r="A39" s="33"/>
+      <c r="B39" t="s" s="30">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s" s="39">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E39" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F39" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H39" s="35"/>
+    </row>
+    <row r="40" ht="33.3" customHeight="1">
+      <c r="A40" s="33"/>
+      <c r="B40" t="s" s="30">
         <v>37</v>
       </c>
-      <c r="C8" t="s" s="39">
+      <c r="C40" t="s" s="39">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E40" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F40" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H40" s="35"/>
+    </row>
+    <row r="41" ht="33.3" customHeight="1">
+      <c r="A41" s="33"/>
+      <c r="B41" t="s" s="30">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s" s="39">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E41" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F41" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H41" s="35"/>
+    </row>
+    <row r="42" ht="33.3" customHeight="1">
+      <c r="A42" s="33"/>
+      <c r="B42" t="s" s="30">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s" s="39">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E42" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F42" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H42" s="35"/>
+    </row>
+    <row r="43" ht="33.3" customHeight="1">
+      <c r="A43" s="33"/>
+      <c r="B43" t="s" s="30">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s" s="39">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E43" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F43" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H43" s="35"/>
+    </row>
+    <row r="44" ht="33.3" customHeight="1">
+      <c r="A44" s="33"/>
+      <c r="B44" t="s" s="30">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s" s="39">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E44" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F44" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H44" s="35"/>
+    </row>
+    <row r="45" ht="33.3" customHeight="1">
+      <c r="A45" s="33"/>
+      <c r="B45" t="s" s="30">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s" s="39">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E45" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F45" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H45" s="35"/>
+    </row>
+    <row r="46" ht="33.3" customHeight="1">
+      <c r="A46" s="33"/>
+      <c r="B46" t="s" s="30">
+        <v>63</v>
+      </c>
+      <c r="C46" t="s" s="39">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E46" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F46" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H46" s="35"/>
+    </row>
+    <row r="47" ht="18.3" customHeight="1">
+      <c r="A47" s="33"/>
+      <c r="B47" t="s" s="30">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s" s="39">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E47" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F47" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H47" s="35"/>
+    </row>
+    <row r="48" ht="33.3" customHeight="1">
+      <c r="A48" t="s" s="29">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s" s="30">
         <v>35</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F8" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H8" s="33"/>
-    </row>
-    <row r="9" ht="33.3" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" t="s" s="31">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s" s="39">
-        <v>35</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F9" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H9" s="33"/>
-    </row>
-    <row r="10" ht="33.3" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" t="s" s="31">
+      <c r="C48" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D48" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E48" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F48" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H48" s="35"/>
+    </row>
+    <row r="49" ht="33.3" customHeight="1">
+      <c r="A49" s="33"/>
+      <c r="B49" t="s" s="30">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s" s="39">
+        <v>65</v>
+      </c>
+      <c r="D49" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E49" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F49" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H49" s="35"/>
+    </row>
+    <row r="50" ht="33.3" customHeight="1">
+      <c r="A50" s="33"/>
+      <c r="B50" t="s" s="30">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s" s="39">
+        <v>66</v>
+      </c>
+      <c r="D50" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E50" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F50" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H50" s="35"/>
+    </row>
+    <row r="51" ht="33.3" customHeight="1">
+      <c r="A51" s="33"/>
+      <c r="B51" t="s" s="30">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s" s="39">
+        <v>66</v>
+      </c>
+      <c r="D51" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E51" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F51" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H51" s="35"/>
+    </row>
+    <row r="52" ht="33.3" customHeight="1">
+      <c r="A52" s="33"/>
+      <c r="B52" t="s" s="30">
+        <v>37</v>
+      </c>
+      <c r="C52" t="s" s="39">
+        <v>66</v>
+      </c>
+      <c r="D52" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E52" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F52" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H52" s="35"/>
+    </row>
+    <row r="53" ht="33.3" customHeight="1">
+      <c r="A53" s="33"/>
+      <c r="B53" t="s" s="30">
         <v>39</v>
       </c>
-      <c r="C10" t="s" s="39">
-        <v>35</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F10" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H10" s="33"/>
-    </row>
-    <row r="11" ht="33.3" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" t="s" s="31">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s" s="39">
-        <v>35</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F11" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H11" s="33"/>
-    </row>
-    <row r="12" ht="33.3" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" t="s" s="31">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s" s="39">
-        <v>35</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F12" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H12" s="33"/>
-    </row>
-    <row r="13" ht="33.3" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" t="s" s="31">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s" s="39">
-        <v>35</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F13" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H13" s="33"/>
-    </row>
-    <row r="14" ht="33.3" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" t="s" s="31">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s" s="39">
-        <v>35</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F14" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H14" s="33"/>
-    </row>
-    <row r="15" ht="33.3" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" t="s" s="31">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s" s="39">
-        <v>35</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F15" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H15" s="33"/>
-    </row>
-    <row r="16" ht="33.3" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" t="s" s="31">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s" s="39">
-        <v>35</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F16" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H16" s="33"/>
-    </row>
-    <row r="17" ht="33.3" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" t="s" s="31">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s" s="39">
-        <v>35</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F17" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" ht="33.3" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" t="s" s="31">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s" s="39">
-        <v>35</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F18" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H18" s="33"/>
-    </row>
-    <row r="19" ht="18.3" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="B19" t="s" s="31">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s" s="39">
+      <c r="C53" t="s" s="39">
+        <v>66</v>
+      </c>
+      <c r="D53" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E53" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F53" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H53" s="35"/>
+    </row>
+    <row r="54" ht="33.3" customHeight="1">
+      <c r="A54" s="33"/>
+      <c r="B54" t="s" s="30">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s" s="39">
+        <v>66</v>
+      </c>
+      <c r="D54" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E54" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F54" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H54" s="35"/>
+    </row>
+    <row r="55" ht="33.3" customHeight="1">
+      <c r="A55" s="33"/>
+      <c r="B55" t="s" s="30">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s" s="39">
+        <v>66</v>
+      </c>
+      <c r="D55" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E55" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F55" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H55" s="35"/>
+    </row>
+    <row r="56" ht="33.3" customHeight="1">
+      <c r="A56" s="33"/>
+      <c r="B56" t="s" s="30">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s" s="39">
+        <v>66</v>
+      </c>
+      <c r="D56" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E56" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F56" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H56" s="35"/>
+    </row>
+    <row r="57" ht="33.3" customHeight="1">
+      <c r="A57" s="33"/>
+      <c r="B57" t="s" s="30">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s" s="39">
+        <v>66</v>
+      </c>
+      <c r="D57" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E57" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F57" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H57" s="35"/>
+    </row>
+    <row r="58" ht="33.3" customHeight="1">
+      <c r="A58" s="33"/>
+      <c r="B58" t="s" s="30">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s" s="39">
+        <v>66</v>
+      </c>
+      <c r="D58" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E58" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F58" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H58" s="35"/>
+    </row>
+    <row r="59" ht="18.3" customHeight="1">
+      <c r="A59" s="33"/>
+      <c r="B59" t="s" s="30">
         <v>49</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F19" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H19" s="33"/>
-    </row>
-    <row r="20" ht="33.3" customHeight="1">
-      <c r="A20" t="s" s="30">
+      <c r="C59" t="s" s="39">
         <v>50</v>
       </c>
-      <c r="B20" t="s" s="31">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s" s="39">
-        <v>51</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F20" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H20" s="33"/>
-    </row>
-    <row r="21" ht="33.3" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="B21" t="s" s="31">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s" s="39">
-        <v>51</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F21" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H21" s="33"/>
-    </row>
-    <row r="22" ht="33.3" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" t="s" s="31">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s" s="39">
-        <v>52</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F22" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H22" s="33"/>
-    </row>
-    <row r="23" ht="33.3" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" t="s" s="31">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s" s="39">
-        <v>53</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F23" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" ht="33.3" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" t="s" s="31">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s" s="39">
-        <v>53</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F24" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="25" ht="33.3" customHeight="1">
-      <c r="A25" s="35"/>
-      <c r="B25" t="s" s="31">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s" s="39">
-        <v>53</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F25" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H25" s="33"/>
-    </row>
-    <row r="26" ht="33.3" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" t="s" s="31">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s" s="39">
-        <v>53</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F26" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H26" s="33"/>
-    </row>
-    <row r="27" ht="33.3" customHeight="1">
-      <c r="A27" s="35"/>
-      <c r="B27" t="s" s="31">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s" s="39">
-        <v>53</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F27" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H27" s="33"/>
-    </row>
-    <row r="28" ht="33.3" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" t="s" s="31">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s" s="39">
-        <v>53</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F28" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H28" s="33"/>
-    </row>
-    <row r="29" ht="33.3" customHeight="1">
-      <c r="A29" s="35"/>
-      <c r="B29" t="s" s="31">
-        <v>42</v>
-      </c>
-      <c r="C29" t="s" s="39">
-        <v>53</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F29" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H29" s="33"/>
-    </row>
-    <row r="30" ht="33.3" customHeight="1">
-      <c r="A30" s="35"/>
-      <c r="B30" t="s" s="31">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s" s="39">
-        <v>53</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F30" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H30" s="33"/>
-    </row>
-    <row r="31" ht="33.3" customHeight="1">
-      <c r="A31" s="35"/>
-      <c r="B31" t="s" s="31">
-        <v>44</v>
-      </c>
-      <c r="C31" t="s" s="39">
-        <v>53</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F31" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H31" s="33"/>
-    </row>
-    <row r="32" ht="33.3" customHeight="1">
-      <c r="A32" s="35"/>
-      <c r="B32" t="s" s="31">
-        <v>45</v>
-      </c>
-      <c r="C32" t="s" s="39">
-        <v>53</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F32" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H32" s="33"/>
-    </row>
-    <row r="33" ht="33.3" customHeight="1">
-      <c r="A33" s="35"/>
-      <c r="B33" t="s" s="31">
-        <v>46</v>
-      </c>
-      <c r="C33" t="s" s="39">
-        <v>53</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F33" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H33" s="33"/>
-    </row>
-    <row r="34" ht="33.3" customHeight="1">
-      <c r="A34" s="35"/>
-      <c r="B34" t="s" s="31">
-        <v>47</v>
-      </c>
-      <c r="C34" t="s" s="39">
-        <v>53</v>
-      </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F34" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H34" s="33"/>
-    </row>
-    <row r="35" ht="18.3" customHeight="1">
-      <c r="A35" s="35"/>
-      <c r="B35" t="s" s="31">
-        <v>48</v>
-      </c>
-      <c r="C35" t="s" s="39">
-        <v>49</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F35" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H35" s="33"/>
-    </row>
-    <row r="36" ht="33.3" customHeight="1">
-      <c r="A36" t="s" s="30">
-        <v>54</v>
-      </c>
-      <c r="B36" t="s" s="31">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F36" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H36" s="33"/>
-    </row>
-    <row r="37" ht="18.3" customHeight="1">
-      <c r="A37" s="35"/>
-      <c r="B37" t="s" s="31">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s" s="39">
+      <c r="D59" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E59" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F59" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H59" s="35"/>
+    </row>
+    <row r="60" ht="78.3" customHeight="1">
+      <c r="A60" t="s" s="29">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s" s="30">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s" s="39">
         <v>56</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F37" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H37" s="33"/>
-    </row>
-    <row r="38" ht="33.3" customHeight="1">
-      <c r="A38" s="35"/>
-      <c r="B38" t="s" s="31">
-        <v>29</v>
-      </c>
-      <c r="C38" t="s" s="39">
+      <c r="D60" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E60" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F60" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H60" s="35"/>
+    </row>
+    <row r="61" ht="33.3" customHeight="1">
+      <c r="A61" s="33"/>
+      <c r="B61" t="s" s="30">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s" s="39">
+        <v>69</v>
+      </c>
+      <c r="D61" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E61" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F61" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H61" s="35"/>
+    </row>
+    <row r="62" ht="48.3" customHeight="1">
+      <c r="A62" s="33"/>
+      <c r="B62" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s" s="39">
+        <v>71</v>
+      </c>
+      <c r="D62" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E62" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F62" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H62" s="35"/>
+    </row>
+    <row r="63" ht="48.3" customHeight="1">
+      <c r="A63" s="33"/>
+      <c r="B63" t="s" s="30">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s" s="39">
+        <v>71</v>
+      </c>
+      <c r="D63" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E63" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F63" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H63" s="35"/>
+    </row>
+    <row r="64" ht="48.3" customHeight="1">
+      <c r="A64" s="33"/>
+      <c r="B64" t="s" s="30">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s" s="39">
+        <v>71</v>
+      </c>
+      <c r="D64" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E64" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F64" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H64" s="35"/>
+    </row>
+    <row r="65" ht="63.3" customHeight="1">
+      <c r="A65" s="33"/>
+      <c r="B65" t="s" s="30">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D65" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E65" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F65" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H65" s="35"/>
+    </row>
+    <row r="66" ht="63.3" customHeight="1">
+      <c r="A66" s="33"/>
+      <c r="B66" t="s" s="30">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D66" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E66" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F66" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H66" s="35"/>
+    </row>
+    <row r="67" ht="63.3" customHeight="1">
+      <c r="A67" s="33"/>
+      <c r="B67" t="s" s="30">
+        <v>76</v>
+      </c>
+      <c r="C67" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D67" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E67" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F67" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H67" s="35"/>
+    </row>
+    <row r="68" ht="78.3" customHeight="1">
+      <c r="A68" s="33"/>
+      <c r="B68" t="s" s="30">
+        <v>77</v>
+      </c>
+      <c r="C68" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D68" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E68" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F68" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H68" s="35"/>
+    </row>
+    <row r="69" ht="78.3" customHeight="1">
+      <c r="A69" s="33"/>
+      <c r="B69" t="s" s="30">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D69" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E69" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F69" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H69" s="35"/>
+    </row>
+    <row r="70" ht="78.3" customHeight="1">
+      <c r="A70" s="33"/>
+      <c r="B70" t="s" s="30">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D70" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E70" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F70" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H70" s="35"/>
+    </row>
+    <row r="71" ht="63.3" customHeight="1">
+      <c r="A71" s="33"/>
+      <c r="B71" t="s" s="30">
+        <v>80</v>
+      </c>
+      <c r="C71" t="s" s="39">
+        <v>71</v>
+      </c>
+      <c r="D71" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E71" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F71" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H71" s="35"/>
+    </row>
+    <row r="72" ht="63.3" customHeight="1">
+      <c r="A72" s="33"/>
+      <c r="B72" t="s" s="30">
+        <v>81</v>
+      </c>
+      <c r="C72" t="s" s="39">
+        <v>71</v>
+      </c>
+      <c r="D72" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E72" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F72" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H72" s="35"/>
+    </row>
+    <row r="73" ht="63.3" customHeight="1">
+      <c r="A73" s="33"/>
+      <c r="B73" t="s" s="30">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s" s="39">
+        <v>71</v>
+      </c>
+      <c r="D73" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E73" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F73" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H73" s="35"/>
+    </row>
+    <row r="74" ht="78.3" customHeight="1">
+      <c r="A74" s="33"/>
+      <c r="B74" t="s" s="30">
+        <v>83</v>
+      </c>
+      <c r="C74" t="s" s="39">
+        <v>71</v>
+      </c>
+      <c r="D74" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E74" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F74" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H74" s="35"/>
+    </row>
+    <row r="75" ht="78.3" customHeight="1">
+      <c r="A75" s="33"/>
+      <c r="B75" t="s" s="30">
+        <v>84</v>
+      </c>
+      <c r="C75" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D75" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E75" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F75" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H75" s="35"/>
+    </row>
+    <row r="76" ht="78.3" customHeight="1">
+      <c r="A76" s="33"/>
+      <c r="B76" t="s" s="30">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s" s="39">
+        <v>71</v>
+      </c>
+      <c r="D76" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E76" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F76" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H76" s="35"/>
+    </row>
+    <row r="77" ht="123.3" customHeight="1">
+      <c r="A77" s="33"/>
+      <c r="B77" t="s" s="30">
+        <v>86</v>
+      </c>
+      <c r="C77" t="s" s="39">
+        <v>71</v>
+      </c>
+      <c r="D77" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E77" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F77" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H77" s="35"/>
+    </row>
+    <row r="78" ht="78.3" customHeight="1">
+      <c r="A78" s="33"/>
+      <c r="B78" t="s" s="30">
+        <v>87</v>
+      </c>
+      <c r="C78" t="s" s="39">
+        <v>71</v>
+      </c>
+      <c r="D78" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E78" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F78" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H78" s="35"/>
+    </row>
+    <row r="79" ht="93.3" customHeight="1">
+      <c r="A79" s="33"/>
+      <c r="B79" t="s" s="30">
+        <v>88</v>
+      </c>
+      <c r="C79" t="s" s="39">
+        <v>89</v>
+      </c>
+      <c r="D79" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E79" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F79" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H79" s="35"/>
+    </row>
+    <row r="80" ht="33.3" customHeight="1">
+      <c r="A80" t="s" s="29">
+        <v>90</v>
+      </c>
+      <c r="B80" t="s" s="30">
+        <v>91</v>
+      </c>
+      <c r="C80" t="s" s="39">
+        <v>92</v>
+      </c>
+      <c r="D80" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E80" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F80" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H80" s="35"/>
+    </row>
+    <row r="81" ht="33.3" customHeight="1">
+      <c r="A81" s="33"/>
+      <c r="B81" t="s" s="30">
+        <v>93</v>
+      </c>
+      <c r="C81" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D81" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E81" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F81" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H81" s="35"/>
+    </row>
+    <row r="82" ht="33.3" customHeight="1">
+      <c r="A82" s="33"/>
+      <c r="B82" t="s" s="30">
+        <v>94</v>
+      </c>
+      <c r="C82" t="s" s="39">
+        <v>95</v>
+      </c>
+      <c r="D82" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E82" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F82" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H82" s="35"/>
+    </row>
+    <row r="83" ht="18.3" customHeight="1">
+      <c r="A83" s="33"/>
+      <c r="B83" t="s" s="30">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s" s="39">
         <v>57</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F38" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H38" s="33"/>
-    </row>
-    <row r="39" ht="33.3" customHeight="1">
-      <c r="A39" s="35"/>
-      <c r="B39" t="s" s="31">
-        <v>31</v>
-      </c>
-      <c r="C39" t="s" s="39">
+      <c r="D83" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E83" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F83" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H83" s="35"/>
+    </row>
+    <row r="84" ht="33.3" customHeight="1">
+      <c r="A84" s="33"/>
+      <c r="B84" t="s" s="30">
+        <v>96</v>
+      </c>
+      <c r="C84" t="s" s="39">
+        <v>97</v>
+      </c>
+      <c r="D84" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E84" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F84" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H84" s="35"/>
+    </row>
+    <row r="85" ht="33.3" customHeight="1">
+      <c r="A85" s="33"/>
+      <c r="B85" t="s" s="30">
+        <v>98</v>
+      </c>
+      <c r="C85" t="s" s="39">
+        <v>97</v>
+      </c>
+      <c r="D85" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E85" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F85" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H85" s="35"/>
+    </row>
+    <row r="86" ht="33.3" customHeight="1">
+      <c r="A86" t="s" s="29">
+        <v>99</v>
+      </c>
+      <c r="B86" t="s" s="30">
+        <v>100</v>
+      </c>
+      <c r="C86" t="s" s="39">
+        <v>101</v>
+      </c>
+      <c r="D86" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E86" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F86" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H86" s="35"/>
+    </row>
+    <row r="87" ht="33.3" customHeight="1">
+      <c r="A87" t="s" s="29">
+        <v>102</v>
+      </c>
+      <c r="B87" t="s" s="30">
+        <v>103</v>
+      </c>
+      <c r="C87" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D87" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E87" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F87" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H87" s="35"/>
+    </row>
+    <row r="88" ht="18.3" customHeight="1">
+      <c r="A88" s="33"/>
+      <c r="B88" t="s" s="30">
+        <v>33</v>
+      </c>
+      <c r="C88" t="s" s="39">
         <v>57</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F39" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H39" s="33"/>
-    </row>
-    <row r="40" ht="33.3" customHeight="1">
-      <c r="A40" s="35"/>
-      <c r="B40" t="s" s="31">
-        <v>36</v>
-      </c>
-      <c r="C40" t="s" s="39">
+      <c r="D88" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E88" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F88" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H88" s="35"/>
+    </row>
+    <row r="89" ht="33.3" customHeight="1">
+      <c r="A89" s="33"/>
+      <c r="B89" t="s" s="30">
+        <v>104</v>
+      </c>
+      <c r="C89" t="s" s="39">
+        <v>105</v>
+      </c>
+      <c r="D89" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E89" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F89" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H89" s="35"/>
+    </row>
+    <row r="90" ht="33.3" customHeight="1">
+      <c r="A90" s="33"/>
+      <c r="B90" t="s" s="30">
+        <v>106</v>
+      </c>
+      <c r="C90" t="s" s="39">
+        <v>105</v>
+      </c>
+      <c r="D90" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E90" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F90" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H90" s="35"/>
+    </row>
+    <row r="91" ht="33.3" customHeight="1">
+      <c r="A91" s="33"/>
+      <c r="B91" t="s" s="30">
+        <v>107</v>
+      </c>
+      <c r="C91" t="s" s="39">
+        <v>105</v>
+      </c>
+      <c r="D91" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E91" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F91" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H91" s="35"/>
+    </row>
+    <row r="92" ht="33.3" customHeight="1">
+      <c r="A92" s="33"/>
+      <c r="B92" t="s" s="30">
+        <v>108</v>
+      </c>
+      <c r="C92" t="s" s="39">
+        <v>105</v>
+      </c>
+      <c r="D92" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E92" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F92" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H92" s="35"/>
+    </row>
+    <row r="93" ht="33.3" customHeight="1">
+      <c r="A93" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="B93" t="s" s="30">
+        <v>110</v>
+      </c>
+      <c r="C93" t="s" s="39">
+        <v>111</v>
+      </c>
+      <c r="D93" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E93" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F93" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H93" s="35"/>
+    </row>
+    <row r="94" ht="33.3" customHeight="1">
+      <c r="A94" s="33"/>
+      <c r="B94" t="s" s="30">
+        <v>112</v>
+      </c>
+      <c r="C94" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D94" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E94" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F94" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H94" s="35"/>
+    </row>
+    <row r="95" ht="18.3" customHeight="1">
+      <c r="A95" s="33"/>
+      <c r="B95" t="s" s="30">
+        <v>33</v>
+      </c>
+      <c r="C95" t="s" s="39">
         <v>57</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F40" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H40" s="33"/>
-    </row>
-    <row r="41" ht="33.3" customHeight="1">
-      <c r="A41" s="35"/>
-      <c r="B41" t="s" s="31">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s" s="39">
+      <c r="D95" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E95" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F95" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H95" s="35"/>
+    </row>
+    <row r="96" ht="33.3" customHeight="1">
+      <c r="A96" t="s" s="29">
+        <v>113</v>
+      </c>
+      <c r="B96" t="s" s="30">
+        <v>114</v>
+      </c>
+      <c r="C96" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D96" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E96" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F96" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H96" s="35"/>
+    </row>
+    <row r="97" ht="33.3" customHeight="1">
+      <c r="A97" s="33"/>
+      <c r="B97" t="s" s="30">
+        <v>115</v>
+      </c>
+      <c r="C97" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D97" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E97" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F97" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H97" s="35"/>
+    </row>
+    <row r="98" ht="33.3" customHeight="1">
+      <c r="A98" s="33"/>
+      <c r="B98" t="s" s="30">
+        <v>116</v>
+      </c>
+      <c r="C98" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D98" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E98" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F98" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H98" s="35"/>
+    </row>
+    <row r="99" ht="33.3" customHeight="1">
+      <c r="A99" s="33"/>
+      <c r="B99" t="s" s="30">
+        <v>117</v>
+      </c>
+      <c r="C99" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D99" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E99" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F99" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H99" s="35"/>
+    </row>
+    <row r="100" ht="33.3" customHeight="1">
+      <c r="A100" s="33"/>
+      <c r="B100" t="s" s="30">
+        <v>118</v>
+      </c>
+      <c r="C100" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D100" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E100" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F100" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H100" s="35"/>
+    </row>
+    <row r="101" ht="33.3" customHeight="1">
+      <c r="A101" s="33"/>
+      <c r="B101" t="s" s="30">
+        <v>119</v>
+      </c>
+      <c r="C101" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D101" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E101" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F101" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H101" s="35"/>
+    </row>
+    <row r="102" ht="33.3" customHeight="1">
+      <c r="A102" s="33"/>
+      <c r="B102" t="s" s="30">
+        <v>37</v>
+      </c>
+      <c r="C102" t="s" s="39">
+        <v>105</v>
+      </c>
+      <c r="D102" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E102" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F102" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H102" s="35"/>
+    </row>
+    <row r="103" ht="18.3" customHeight="1">
+      <c r="A103" s="33"/>
+      <c r="B103" t="s" s="30">
+        <v>33</v>
+      </c>
+      <c r="C103" t="s" s="39">
         <v>57</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F41" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H41" s="33"/>
-    </row>
-    <row r="42" ht="33.3" customHeight="1">
-      <c r="A42" s="35"/>
-      <c r="B42" t="s" s="31">
-        <v>58</v>
-      </c>
-      <c r="C42" t="s" s="39">
+      <c r="D103" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E103" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F103" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H103" s="35"/>
+    </row>
+    <row r="104" ht="33.3" customHeight="1">
+      <c r="A104" t="s" s="29">
+        <v>120</v>
+      </c>
+      <c r="B104" t="s" s="30">
+        <v>114</v>
+      </c>
+      <c r="C104" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D104" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E104" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F104" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H104" s="35"/>
+    </row>
+    <row r="105" ht="33.3" customHeight="1">
+      <c r="A105" s="33"/>
+      <c r="B105" t="s" s="30">
+        <v>115</v>
+      </c>
+      <c r="C105" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D105" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E105" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F105" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H105" s="35"/>
+    </row>
+    <row r="106" ht="33.3" customHeight="1">
+      <c r="A106" s="33"/>
+      <c r="B106" t="s" s="30">
+        <v>116</v>
+      </c>
+      <c r="C106" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D106" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E106" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F106" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H106" s="35"/>
+    </row>
+    <row r="107" ht="33.3" customHeight="1">
+      <c r="A107" s="33"/>
+      <c r="B107" t="s" s="30">
+        <v>117</v>
+      </c>
+      <c r="C107" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D107" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E107" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F107" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H107" s="35"/>
+    </row>
+    <row r="108" ht="33.3" customHeight="1">
+      <c r="A108" s="33"/>
+      <c r="B108" t="s" s="30">
+        <v>118</v>
+      </c>
+      <c r="C108" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D108" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E108" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F108" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H108" s="35"/>
+    </row>
+    <row r="109" ht="33.3" customHeight="1">
+      <c r="A109" s="33"/>
+      <c r="B109" t="s" s="30">
+        <v>119</v>
+      </c>
+      <c r="C109" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="D109" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E109" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F109" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H109" s="35"/>
+    </row>
+    <row r="110" ht="33.3" customHeight="1">
+      <c r="A110" s="33"/>
+      <c r="B110" t="s" s="30">
+        <v>37</v>
+      </c>
+      <c r="C110" t="s" s="39">
+        <v>105</v>
+      </c>
+      <c r="D110" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E110" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F110" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="H110" s="35"/>
+    </row>
+    <row r="111" ht="18.3" customHeight="1">
+      <c r="A111" s="33"/>
+      <c r="B111" t="s" s="30">
+        <v>33</v>
+      </c>
+      <c r="C111" t="s" s="39">
         <v>57</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F42" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H42" s="33"/>
-    </row>
-    <row r="43" ht="33.3" customHeight="1">
-      <c r="A43" s="35"/>
-      <c r="B43" t="s" s="31">
-        <v>59</v>
-      </c>
-      <c r="C43" t="s" s="39">
-        <v>57</v>
-      </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F43" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H43" s="33"/>
-    </row>
-    <row r="44" ht="33.3" customHeight="1">
-      <c r="A44" s="35"/>
-      <c r="B44" t="s" s="31">
-        <v>60</v>
-      </c>
-      <c r="C44" t="s" s="39">
-        <v>57</v>
-      </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F44" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H44" s="33"/>
-    </row>
-    <row r="45" ht="33.3" customHeight="1">
-      <c r="A45" s="35"/>
-      <c r="B45" t="s" s="31">
-        <v>61</v>
-      </c>
-      <c r="C45" t="s" s="39">
-        <v>57</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F45" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H45" s="33"/>
-    </row>
-    <row r="46" ht="33.3" customHeight="1">
-      <c r="A46" s="35"/>
-      <c r="B46" t="s" s="31">
-        <v>62</v>
-      </c>
-      <c r="C46" t="s" s="39">
-        <v>57</v>
-      </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F46" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H46" s="33"/>
-    </row>
-    <row r="47" ht="18.3" customHeight="1">
-      <c r="A47" s="35"/>
-      <c r="B47" t="s" s="31">
-        <v>48</v>
-      </c>
-      <c r="C47" t="s" s="39">
-        <v>49</v>
-      </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F47" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H47" s="33"/>
-    </row>
-    <row r="48" ht="33.3" customHeight="1">
-      <c r="A48" t="s" s="30">
-        <v>63</v>
-      </c>
-      <c r="B48" t="s" s="31">
-        <v>34</v>
-      </c>
-      <c r="C48" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F48" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H48" s="33"/>
-    </row>
-    <row r="49" ht="33.3" customHeight="1">
-      <c r="A49" s="35"/>
-      <c r="B49" t="s" s="31">
-        <v>32</v>
-      </c>
-      <c r="C49" t="s" s="39">
-        <v>64</v>
-      </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F49" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H49" s="33"/>
-    </row>
-    <row r="50" ht="33.3" customHeight="1">
-      <c r="A50" s="35"/>
-      <c r="B50" t="s" s="31">
-        <v>29</v>
-      </c>
-      <c r="C50" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F50" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H50" s="33"/>
-    </row>
-    <row r="51" ht="33.3" customHeight="1">
-      <c r="A51" s="35"/>
-      <c r="B51" t="s" s="31">
-        <v>31</v>
-      </c>
-      <c r="C51" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F51" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H51" s="33"/>
-    </row>
-    <row r="52" ht="33.3" customHeight="1">
-      <c r="A52" s="35"/>
-      <c r="B52" t="s" s="31">
-        <v>36</v>
-      </c>
-      <c r="C52" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F52" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H52" s="33"/>
-    </row>
-    <row r="53" ht="33.3" customHeight="1">
-      <c r="A53" s="35"/>
-      <c r="B53" t="s" s="31">
-        <v>38</v>
-      </c>
-      <c r="C53" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F53" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H53" s="33"/>
-    </row>
-    <row r="54" ht="33.3" customHeight="1">
-      <c r="A54" s="35"/>
-      <c r="B54" t="s" s="31">
-        <v>58</v>
-      </c>
-      <c r="C54" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F54" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H54" s="33"/>
-    </row>
-    <row r="55" ht="33.3" customHeight="1">
-      <c r="A55" s="35"/>
-      <c r="B55" t="s" s="31">
-        <v>59</v>
-      </c>
-      <c r="C55" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F55" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H55" s="33"/>
-    </row>
-    <row r="56" ht="33.3" customHeight="1">
-      <c r="A56" s="35"/>
-      <c r="B56" t="s" s="31">
-        <v>60</v>
-      </c>
-      <c r="C56" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F56" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H56" s="33"/>
-    </row>
-    <row r="57" ht="33.3" customHeight="1">
-      <c r="A57" s="35"/>
-      <c r="B57" t="s" s="31">
-        <v>61</v>
-      </c>
-      <c r="C57" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F57" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H57" s="33"/>
-    </row>
-    <row r="58" ht="33.3" customHeight="1">
-      <c r="A58" s="35"/>
-      <c r="B58" t="s" s="31">
-        <v>62</v>
-      </c>
-      <c r="C58" t="s" s="39">
-        <v>65</v>
-      </c>
-      <c r="D58" s="33"/>
-      <c r="E58" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F58" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H58" s="33"/>
-    </row>
-    <row r="59" ht="18.3" customHeight="1">
-      <c r="A59" s="35"/>
-      <c r="B59" t="s" s="31">
-        <v>48</v>
-      </c>
-      <c r="C59" t="s" s="39">
-        <v>49</v>
-      </c>
-      <c r="D59" s="33"/>
-      <c r="E59" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F59" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H59" s="33"/>
-    </row>
-    <row r="60" ht="78.3" customHeight="1">
-      <c r="A60" t="s" s="30">
-        <v>66</v>
-      </c>
-      <c r="B60" t="s" s="31">
-        <v>67</v>
-      </c>
-      <c r="C60" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D60" s="33"/>
-      <c r="E60" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F60" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H60" s="33"/>
-    </row>
-    <row r="61" ht="33.3" customHeight="1">
-      <c r="A61" s="35"/>
-      <c r="B61" t="s" s="31">
-        <v>32</v>
-      </c>
-      <c r="C61" t="s" s="39">
-        <v>68</v>
-      </c>
-      <c r="D61" s="33"/>
-      <c r="E61" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F61" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H61" s="33"/>
-    </row>
-    <row r="62" ht="48.3" customHeight="1">
-      <c r="A62" s="35"/>
-      <c r="B62" t="s" s="31">
-        <v>69</v>
-      </c>
-      <c r="C62" t="s" s="39">
-        <v>70</v>
-      </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F62" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H62" s="33"/>
-    </row>
-    <row r="63" ht="48.3" customHeight="1">
-      <c r="A63" s="35"/>
-      <c r="B63" t="s" s="31">
-        <v>71</v>
-      </c>
-      <c r="C63" t="s" s="39">
-        <v>70</v>
-      </c>
-      <c r="D63" s="33"/>
-      <c r="E63" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F63" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H63" s="33"/>
-    </row>
-    <row r="64" ht="48.3" customHeight="1">
-      <c r="A64" s="35"/>
-      <c r="B64" t="s" s="31">
-        <v>72</v>
-      </c>
-      <c r="C64" t="s" s="39">
-        <v>70</v>
-      </c>
-      <c r="D64" s="33"/>
-      <c r="E64" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F64" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G64" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H64" s="33"/>
-    </row>
-    <row r="65" ht="63.3" customHeight="1">
-      <c r="A65" s="35"/>
-      <c r="B65" t="s" s="31">
-        <v>73</v>
-      </c>
-      <c r="C65" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F65" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H65" s="33"/>
-    </row>
-    <row r="66" ht="63.3" customHeight="1">
-      <c r="A66" s="35"/>
-      <c r="B66" t="s" s="31">
-        <v>74</v>
-      </c>
-      <c r="C66" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F66" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H66" s="33"/>
-    </row>
-    <row r="67" ht="63.3" customHeight="1">
-      <c r="A67" s="35"/>
-      <c r="B67" t="s" s="31">
-        <v>75</v>
-      </c>
-      <c r="C67" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D67" s="33"/>
-      <c r="E67" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F67" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H67" s="33"/>
-    </row>
-    <row r="68" ht="78.3" customHeight="1">
-      <c r="A68" s="35"/>
-      <c r="B68" t="s" s="31">
-        <v>76</v>
-      </c>
-      <c r="C68" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D68" s="33"/>
-      <c r="E68" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F68" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H68" s="33"/>
-    </row>
-    <row r="69" ht="78.3" customHeight="1">
-      <c r="A69" s="35"/>
-      <c r="B69" t="s" s="31">
-        <v>77</v>
-      </c>
-      <c r="C69" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D69" s="33"/>
-      <c r="E69" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F69" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H69" s="33"/>
-    </row>
-    <row r="70" ht="78.3" customHeight="1">
-      <c r="A70" s="35"/>
-      <c r="B70" t="s" s="31">
-        <v>78</v>
-      </c>
-      <c r="C70" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F70" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G70" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H70" s="33"/>
-    </row>
-    <row r="71" ht="63.3" customHeight="1">
-      <c r="A71" s="35"/>
-      <c r="B71" t="s" s="31">
-        <v>79</v>
-      </c>
-      <c r="C71" t="s" s="39">
-        <v>70</v>
-      </c>
-      <c r="D71" s="33"/>
-      <c r="E71" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F71" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H71" s="33"/>
-    </row>
-    <row r="72" ht="63.3" customHeight="1">
-      <c r="A72" s="35"/>
-      <c r="B72" t="s" s="31">
-        <v>80</v>
-      </c>
-      <c r="C72" t="s" s="39">
-        <v>70</v>
-      </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F72" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H72" s="33"/>
-    </row>
-    <row r="73" ht="63.3" customHeight="1">
-      <c r="A73" s="35"/>
-      <c r="B73" t="s" s="31">
-        <v>81</v>
-      </c>
-      <c r="C73" t="s" s="39">
-        <v>70</v>
-      </c>
-      <c r="D73" s="33"/>
-      <c r="E73" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F73" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H73" s="33"/>
-    </row>
-    <row r="74" ht="78.3" customHeight="1">
-      <c r="A74" s="35"/>
-      <c r="B74" t="s" s="31">
-        <v>82</v>
-      </c>
-      <c r="C74" t="s" s="39">
-        <v>70</v>
-      </c>
-      <c r="D74" s="33"/>
-      <c r="E74" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F74" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G74" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H74" s="33"/>
-    </row>
-    <row r="75" ht="78.3" customHeight="1">
-      <c r="A75" s="35"/>
-      <c r="B75" t="s" s="31">
-        <v>83</v>
-      </c>
-      <c r="C75" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D75" s="33"/>
-      <c r="E75" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F75" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H75" s="33"/>
-    </row>
-    <row r="76" ht="78.3" customHeight="1">
-      <c r="A76" s="35"/>
-      <c r="B76" t="s" s="31">
-        <v>84</v>
-      </c>
-      <c r="C76" t="s" s="39">
-        <v>70</v>
-      </c>
-      <c r="D76" s="33"/>
-      <c r="E76" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F76" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G76" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H76" s="33"/>
-    </row>
-    <row r="77" ht="123.3" customHeight="1">
-      <c r="A77" s="35"/>
-      <c r="B77" t="s" s="31">
-        <v>85</v>
-      </c>
-      <c r="C77" t="s" s="39">
-        <v>70</v>
-      </c>
-      <c r="D77" s="33"/>
-      <c r="E77" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F77" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H77" s="33"/>
-    </row>
-    <row r="78" ht="78.3" customHeight="1">
-      <c r="A78" s="35"/>
-      <c r="B78" t="s" s="31">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s" s="39">
-        <v>70</v>
-      </c>
-      <c r="D78" s="33"/>
-      <c r="E78" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F78" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H78" s="33"/>
-    </row>
-    <row r="79" ht="93.3" customHeight="1">
-      <c r="A79" s="35"/>
-      <c r="B79" t="s" s="31">
-        <v>87</v>
-      </c>
-      <c r="C79" t="s" s="39">
-        <v>88</v>
-      </c>
-      <c r="D79" s="33"/>
-      <c r="E79" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F79" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H79" s="33"/>
-    </row>
-    <row r="80" ht="33.3" customHeight="1">
-      <c r="A80" t="s" s="30">
-        <v>89</v>
-      </c>
-      <c r="B80" t="s" s="31">
-        <v>90</v>
-      </c>
-      <c r="C80" t="s" s="39">
-        <v>91</v>
-      </c>
-      <c r="D80" s="33"/>
-      <c r="E80" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F80" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H80" s="33"/>
-    </row>
-    <row r="81" ht="33.3" customHeight="1">
-      <c r="A81" s="35"/>
-      <c r="B81" t="s" s="31">
-        <v>92</v>
-      </c>
-      <c r="C81" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D81" s="33"/>
-      <c r="E81" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F81" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H81" s="33"/>
-    </row>
-    <row r="82" ht="33.3" customHeight="1">
-      <c r="A82" s="35"/>
-      <c r="B82" t="s" s="31">
-        <v>93</v>
-      </c>
-      <c r="C82" t="s" s="39">
-        <v>94</v>
-      </c>
-      <c r="D82" s="33"/>
-      <c r="E82" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F82" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H82" s="33"/>
-    </row>
-    <row r="83" ht="18.3" customHeight="1">
-      <c r="A83" s="35"/>
-      <c r="B83" t="s" s="31">
-        <v>32</v>
-      </c>
-      <c r="C83" t="s" s="39">
-        <v>56</v>
-      </c>
-      <c r="D83" s="33"/>
-      <c r="E83" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F83" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H83" s="33"/>
-    </row>
-    <row r="84" ht="33.3" customHeight="1">
-      <c r="A84" s="35"/>
-      <c r="B84" t="s" s="31">
-        <v>95</v>
-      </c>
-      <c r="C84" t="s" s="39">
-        <v>96</v>
-      </c>
-      <c r="D84" s="33"/>
-      <c r="E84" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F84" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H84" s="33"/>
-    </row>
-    <row r="85" ht="33.3" customHeight="1">
-      <c r="A85" s="35"/>
-      <c r="B85" t="s" s="31">
-        <v>97</v>
-      </c>
-      <c r="C85" t="s" s="39">
-        <v>96</v>
-      </c>
-      <c r="D85" s="33"/>
-      <c r="E85" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F85" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G85" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H85" s="33"/>
-    </row>
-    <row r="86" ht="33.3" customHeight="1">
-      <c r="A86" t="s" s="30">
-        <v>98</v>
-      </c>
-      <c r="B86" t="s" s="31">
-        <v>99</v>
-      </c>
-      <c r="C86" t="s" s="39">
-        <v>100</v>
-      </c>
-      <c r="D86" s="33"/>
-      <c r="E86" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F86" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H86" s="33"/>
-    </row>
-    <row r="87" ht="33.3" customHeight="1">
-      <c r="A87" t="s" s="30">
-        <v>101</v>
-      </c>
-      <c r="B87" t="s" s="31">
-        <v>102</v>
-      </c>
-      <c r="C87" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D87" s="33"/>
-      <c r="E87" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F87" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G87" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H87" s="33"/>
-    </row>
-    <row r="88" ht="18.3" customHeight="1">
-      <c r="A88" s="35"/>
-      <c r="B88" t="s" s="31">
-        <v>32</v>
-      </c>
-      <c r="C88" t="s" s="39">
-        <v>56</v>
-      </c>
-      <c r="D88" s="33"/>
-      <c r="E88" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F88" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H88" s="33"/>
-    </row>
-    <row r="89" ht="33.3" customHeight="1">
-      <c r="A89" s="35"/>
-      <c r="B89" t="s" s="31">
-        <v>103</v>
-      </c>
-      <c r="C89" t="s" s="39">
-        <v>104</v>
-      </c>
-      <c r="D89" s="33"/>
-      <c r="E89" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F89" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G89" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H89" s="33"/>
-    </row>
-    <row r="90" ht="33.3" customHeight="1">
-      <c r="A90" s="35"/>
-      <c r="B90" t="s" s="31">
-        <v>105</v>
-      </c>
-      <c r="C90" t="s" s="39">
-        <v>104</v>
-      </c>
-      <c r="D90" s="33"/>
-      <c r="E90" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F90" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G90" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H90" s="33"/>
-    </row>
-    <row r="91" ht="33.3" customHeight="1">
-      <c r="A91" s="35"/>
-      <c r="B91" t="s" s="31">
-        <v>106</v>
-      </c>
-      <c r="C91" t="s" s="39">
-        <v>104</v>
-      </c>
-      <c r="D91" s="33"/>
-      <c r="E91" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F91" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H91" s="33"/>
-    </row>
-    <row r="92" ht="33.3" customHeight="1">
-      <c r="A92" s="35"/>
-      <c r="B92" t="s" s="31">
-        <v>107</v>
-      </c>
-      <c r="C92" t="s" s="39">
-        <v>104</v>
-      </c>
-      <c r="D92" s="33"/>
-      <c r="E92" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F92" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G92" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H92" s="33"/>
-    </row>
-    <row r="93" ht="33.3" customHeight="1">
-      <c r="A93" t="s" s="30">
-        <v>108</v>
-      </c>
-      <c r="B93" t="s" s="31">
-        <v>109</v>
-      </c>
-      <c r="C93" t="s" s="39">
-        <v>110</v>
-      </c>
-      <c r="D93" s="33"/>
-      <c r="E93" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F93" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H93" s="33"/>
-    </row>
-    <row r="94" ht="33.3" customHeight="1">
-      <c r="A94" s="35"/>
-      <c r="B94" t="s" s="31">
-        <v>111</v>
-      </c>
-      <c r="C94" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D94" s="33"/>
-      <c r="E94" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F94" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G94" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H94" s="33"/>
-    </row>
-    <row r="95" ht="18.3" customHeight="1">
-      <c r="A95" s="35"/>
-      <c r="B95" t="s" s="31">
-        <v>32</v>
-      </c>
-      <c r="C95" t="s" s="39">
-        <v>56</v>
-      </c>
-      <c r="D95" s="33"/>
-      <c r="E95" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F95" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G95" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H95" s="33"/>
-    </row>
-    <row r="96" ht="33.3" customHeight="1">
-      <c r="A96" t="s" s="30">
-        <v>112</v>
-      </c>
-      <c r="B96" t="s" s="31">
-        <v>113</v>
-      </c>
-      <c r="C96" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D96" s="33"/>
-      <c r="E96" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F96" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H96" s="33"/>
-    </row>
-    <row r="97" ht="33.3" customHeight="1">
-      <c r="A97" s="35"/>
-      <c r="B97" t="s" s="31">
-        <v>114</v>
-      </c>
-      <c r="C97" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D97" s="33"/>
-      <c r="E97" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F97" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H97" s="33"/>
-    </row>
-    <row r="98" ht="33.3" customHeight="1">
-      <c r="A98" s="35"/>
-      <c r="B98" t="s" s="31">
-        <v>115</v>
-      </c>
-      <c r="C98" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D98" s="33"/>
-      <c r="E98" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F98" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H98" s="33"/>
-    </row>
-    <row r="99" ht="33.3" customHeight="1">
-      <c r="A99" s="35"/>
-      <c r="B99" t="s" s="31">
-        <v>116</v>
-      </c>
-      <c r="C99" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D99" s="33"/>
-      <c r="E99" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F99" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H99" s="33"/>
-    </row>
-    <row r="100" ht="33.3" customHeight="1">
-      <c r="A100" s="35"/>
-      <c r="B100" t="s" s="31">
-        <v>117</v>
-      </c>
-      <c r="C100" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D100" s="33"/>
-      <c r="E100" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F100" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H100" s="33"/>
-    </row>
-    <row r="101" ht="33.3" customHeight="1">
-      <c r="A101" s="35"/>
-      <c r="B101" t="s" s="31">
-        <v>118</v>
-      </c>
-      <c r="C101" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D101" s="33"/>
-      <c r="E101" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F101" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G101" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H101" s="33"/>
-    </row>
-    <row r="102" ht="33.3" customHeight="1">
-      <c r="A102" s="35"/>
-      <c r="B102" t="s" s="31">
-        <v>36</v>
-      </c>
-      <c r="C102" t="s" s="39">
-        <v>104</v>
-      </c>
-      <c r="D102" s="33"/>
-      <c r="E102" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F102" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H102" s="33"/>
-    </row>
-    <row r="103" ht="18.3" customHeight="1">
-      <c r="A103" s="35"/>
-      <c r="B103" t="s" s="31">
-        <v>32</v>
-      </c>
-      <c r="C103" t="s" s="39">
-        <v>56</v>
-      </c>
-      <c r="D103" s="33"/>
-      <c r="E103" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F103" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H103" s="33"/>
-    </row>
-    <row r="104" ht="33.3" customHeight="1">
-      <c r="A104" t="s" s="30">
-        <v>119</v>
-      </c>
-      <c r="B104" t="s" s="31">
-        <v>113</v>
-      </c>
-      <c r="C104" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D104" s="33"/>
-      <c r="E104" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F104" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H104" s="33"/>
-    </row>
-    <row r="105" ht="33.3" customHeight="1">
-      <c r="A105" s="35"/>
-      <c r="B105" t="s" s="31">
-        <v>114</v>
-      </c>
-      <c r="C105" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D105" s="33"/>
-      <c r="E105" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F105" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G105" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H105" s="33"/>
-    </row>
-    <row r="106" ht="33.3" customHeight="1">
-      <c r="A106" s="35"/>
-      <c r="B106" t="s" s="31">
-        <v>115</v>
-      </c>
-      <c r="C106" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D106" s="33"/>
-      <c r="E106" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F106" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G106" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H106" s="33"/>
-    </row>
-    <row r="107" ht="33.3" customHeight="1">
-      <c r="A107" s="35"/>
-      <c r="B107" t="s" s="31">
-        <v>116</v>
-      </c>
-      <c r="C107" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D107" s="33"/>
-      <c r="E107" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F107" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G107" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H107" s="33"/>
-    </row>
-    <row r="108" ht="33.3" customHeight="1">
-      <c r="A108" s="35"/>
-      <c r="B108" t="s" s="31">
-        <v>117</v>
-      </c>
-      <c r="C108" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D108" s="33"/>
-      <c r="E108" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F108" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G108" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H108" s="33"/>
-    </row>
-    <row r="109" ht="33.3" customHeight="1">
-      <c r="A109" s="35"/>
-      <c r="B109" t="s" s="31">
-        <v>118</v>
-      </c>
-      <c r="C109" t="s" s="39">
-        <v>55</v>
-      </c>
-      <c r="D109" s="33"/>
-      <c r="E109" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F109" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G109" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H109" s="33"/>
-    </row>
-    <row r="110" ht="33.3" customHeight="1">
-      <c r="A110" s="35"/>
-      <c r="B110" t="s" s="31">
-        <v>36</v>
-      </c>
-      <c r="C110" t="s" s="39">
-        <v>104</v>
-      </c>
-      <c r="D110" s="33"/>
-      <c r="E110" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F110" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H110" s="33"/>
-    </row>
-    <row r="111" ht="18.3" customHeight="1">
-      <c r="A111" s="35"/>
-      <c r="B111" t="s" s="31">
-        <v>32</v>
-      </c>
-      <c r="C111" t="s" s="39">
-        <v>56</v>
-      </c>
-      <c r="D111" s="33"/>
-      <c r="E111" s="29">
+      <c r="D111" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E111" s="28">
         <v>45967</v>
       </c>
       <c r="F111" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G111" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H111" s="33"/>
+        <v>25</v>
+      </c>
+      <c r="H111" s="35"/>
     </row>
     <row r="112" ht="33.3" customHeight="1">
-      <c r="A112" t="s" s="30">
-        <v>120</v>
-      </c>
-      <c r="B112" t="s" s="31">
+      <c r="A112" t="s" s="29">
         <v>121</v>
       </c>
+      <c r="B112" t="s" s="30">
+        <v>122</v>
+      </c>
       <c r="C112" t="s" s="39">
-        <v>122</v>
-      </c>
-      <c r="D112" s="33"/>
-      <c r="E112" s="29">
+        <v>123</v>
+      </c>
+      <c r="D112" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E112" s="28">
         <v>45967</v>
       </c>
       <c r="F112" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G112" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H112" s="33"/>
+        <v>25</v>
+      </c>
+      <c r="H112" s="35"/>
     </row>
     <row r="113" ht="33.3" customHeight="1">
-      <c r="A113" t="s" s="30">
-        <v>123</v>
-      </c>
-      <c r="B113" t="s" s="31">
+      <c r="A113" t="s" s="29">
         <v>124</v>
       </c>
+      <c r="B113" t="s" s="30">
+        <v>125</v>
+      </c>
       <c r="C113" t="s" s="39">
-        <v>125</v>
-      </c>
-      <c r="D113" s="33"/>
-      <c r="E113" s="29">
+        <v>126</v>
+      </c>
+      <c r="D113" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E113" s="28">
         <v>45967</v>
       </c>
       <c r="F113" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G113" t="s" s="27">
-        <v>24</v>
-      </c>
-      <c r="H113" s="33"/>
+        <v>25</v>
+      </c>
+      <c r="H113" s="35"/>
     </row>
     <row r="114" ht="108.55" customHeight="1">
-      <c r="A114" s="35"/>
-      <c r="B114" t="s" s="31">
-        <v>126</v>
+      <c r="A114" s="33"/>
+      <c r="B114" t="s" s="30">
+        <v>127</v>
       </c>
       <c r="C114" t="s" s="39">
-        <v>127</v>
-      </c>
-      <c r="D114" s="33"/>
-      <c r="E114" s="34">
+        <v>128</v>
+      </c>
+      <c r="D114" t="s" s="31">
+        <v>23</v>
+      </c>
+      <c r="E114" s="32">
         <v>45967</v>
       </c>
       <c r="F114" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G114" t="s" s="32">
-        <v>24</v>
-      </c>
-      <c r="H114" s="33"/>
+        <v>24</v>
+      </c>
+      <c r="G114" t="s" s="31">
+        <v>25</v>
+      </c>
+      <c r="H114" s="35"/>
     </row>
     <row r="115" ht="18.3" customHeight="1">
-      <c r="A115" s="35"/>
-      <c r="B115" s="36"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="35"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="35"/>
     </row>
     <row r="116" ht="18.3" customHeight="1">
-      <c r="A116" s="35"/>
-      <c r="B116" s="36"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
     </row>
     <row r="117" ht="18.3" customHeight="1">
-      <c r="A117" s="35"/>
-      <c r="B117" s="36"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="35"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
     </row>
     <row r="118" ht="18.3" customHeight="1">
-      <c r="A118" s="35"/>
-      <c r="B118" s="36"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
     </row>
     <row r="119" ht="18.3" customHeight="1">
-      <c r="A119" s="35"/>
-      <c r="B119" s="36"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
     </row>
     <row r="120" ht="18.3" customHeight="1">
-      <c r="A120" s="35"/>
-      <c r="B120" s="36"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="33"/>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
+      <c r="A120" s="33"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="35"/>
+      <c r="F120" s="35"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="35"/>
     </row>
     <row r="121" ht="18.3" customHeight="1">
-      <c r="A121" s="35"/>
-      <c r="B121" s="36"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33"/>
-      <c r="G121" s="33"/>
-      <c r="H121" s="33"/>
+      <c r="A121" s="33"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="35"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="35"/>
     </row>
     <row r="122" ht="18.3" customHeight="1">
-      <c r="A122" s="35"/>
-      <c r="B122" s="36"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
     </row>
     <row r="123" ht="18.3" customHeight="1">
-      <c r="A123" s="35"/>
-      <c r="B123" s="36"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33"/>
+      <c r="A123" s="33"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="35"/>
     </row>
     <row r="124" ht="18.3" customHeight="1">
-      <c r="A124" s="35"/>
-      <c r="B124" s="36"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
+      <c r="A124" s="33"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="35"/>
+      <c r="G124" s="35"/>
+      <c r="H124" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5210,364 +5441,396 @@
     </row>
     <row r="3" ht="48.5" customHeight="1">
       <c r="A3" t="s" s="25">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s" s="26">
-        <v>129</v>
-      </c>
-      <c r="C3" t="s" s="32">
         <v>130</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F3" t="s" s="32">
-        <v>23</v>
+      <c r="C3" t="s" s="31">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E3" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F3" t="s" s="31">
+        <v>24</v>
       </c>
       <c r="G3" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="48.3" customHeight="1">
-      <c r="A4" t="s" s="30">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s" s="31">
-        <v>131</v>
+      <c r="A4" t="s" s="29">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s" s="30">
+        <v>132</v>
       </c>
       <c r="C4" t="s" s="39">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E4" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F4" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="48.3" customHeight="1">
+      <c r="A5" t="s" s="29">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s" s="30">
         <v>132</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F4" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s" s="27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" ht="48.3" customHeight="1">
-      <c r="A5" t="s" s="30">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s" s="31">
-        <v>131</v>
-      </c>
       <c r="C5" t="s" s="39">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E5" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F5" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="48.3" customHeight="1">
+      <c r="A6" t="s" s="29">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s" s="30">
         <v>132</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F5" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s" s="27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" ht="48.3" customHeight="1">
-      <c r="A6" t="s" s="30">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s" s="31">
-        <v>131</v>
-      </c>
       <c r="C6" t="s" s="39">
+        <v>133</v>
+      </c>
+      <c r="D6" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E6" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F6" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="48.3" customHeight="1">
+      <c r="A7" t="s" s="29">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s" s="30">
         <v>132</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F6" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s" s="27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" ht="48.3" customHeight="1">
-      <c r="A7" t="s" s="30">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s" s="31">
-        <v>131</v>
-      </c>
       <c r="C7" t="s" s="39">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E7" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F7" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="48.3" customHeight="1">
+      <c r="A8" t="s" s="29">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s" s="30">
         <v>132</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F7" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s" s="27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" ht="48.3" customHeight="1">
-      <c r="A8" t="s" s="30">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s" s="31">
-        <v>131</v>
-      </c>
       <c r="C8" t="s" s="39">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E8" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F8" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" ht="48.3" customHeight="1">
+      <c r="A9" t="s" s="29">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s" s="30">
         <v>132</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F8" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s" s="27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" ht="48.3" customHeight="1">
-      <c r="A9" t="s" s="30">
-        <v>89</v>
-      </c>
-      <c r="B9" t="s" s="31">
-        <v>131</v>
-      </c>
       <c r="C9" t="s" s="39">
+        <v>134</v>
+      </c>
+      <c r="D9" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E9" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F9" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="48.3" customHeight="1">
+      <c r="A10" t="s" s="29">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s" s="30">
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="39">
+        <v>135</v>
+      </c>
+      <c r="D10" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E10" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F10" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="48.3" customHeight="1">
+      <c r="A11" t="s" s="29">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s" s="30">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="39">
         <v>133</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F9" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s" s="27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" ht="48.3" customHeight="1">
-      <c r="A10" t="s" s="30">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s" s="31">
-        <v>131</v>
-      </c>
-      <c r="C10" t="s" s="39">
-        <v>134</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F10" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s" s="27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" ht="48.3" customHeight="1">
-      <c r="A11" t="s" s="30">
-        <v>101</v>
-      </c>
-      <c r="B11" t="s" s="31">
-        <v>131</v>
-      </c>
-      <c r="C11" t="s" s="39">
+      <c r="D11" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E11" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F11" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" ht="48.3" customHeight="1">
+      <c r="A12" t="s" s="29">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s" s="30">
         <v>132</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F11" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s" s="27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="48.3" customHeight="1">
-      <c r="A12" t="s" s="30">
+      <c r="C12" t="s" s="39">
         <v>135</v>
       </c>
-      <c r="B12" t="s" s="31">
-        <v>131</v>
-      </c>
-      <c r="C12" t="s" s="39">
-        <v>134</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="29">
+      <c r="D12" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E12" s="28">
         <v>45967</v>
       </c>
       <c r="F12" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="48.3" customHeight="1">
-      <c r="A13" t="s" s="30">
-        <v>136</v>
-      </c>
-      <c r="B13" t="s" s="31">
-        <v>131</v>
+      <c r="A13" t="s" s="29">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s" s="30">
+        <v>132</v>
       </c>
       <c r="C13" t="s" s="39">
+        <v>133</v>
+      </c>
+      <c r="D13" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E13" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F13" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="48.3" customHeight="1">
+      <c r="A14" t="s" s="29">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s" s="30">
         <v>132</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F13" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s" s="27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" ht="48.3" customHeight="1">
-      <c r="A14" t="s" s="30">
-        <v>137</v>
-      </c>
-      <c r="B14" t="s" s="31">
-        <v>131</v>
-      </c>
       <c r="C14" t="s" s="39">
+        <v>133</v>
+      </c>
+      <c r="D14" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E14" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F14" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="48.3" customHeight="1">
+      <c r="A15" t="s" s="29">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s" s="30">
         <v>132</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F14" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s" s="27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="48.3" customHeight="1">
-      <c r="A15" t="s" s="30">
-        <v>120</v>
-      </c>
-      <c r="B15" t="s" s="31">
-        <v>131</v>
-      </c>
       <c r="C15" t="s" s="39">
-        <v>134</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="29">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E15" s="28">
         <v>45967</v>
       </c>
       <c r="F15" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="33.3" customHeight="1">
-      <c r="A16" t="s" s="30">
-        <v>138</v>
-      </c>
-      <c r="B16" t="s" s="31">
+      <c r="A16" t="s" s="29">
         <v>139</v>
       </c>
+      <c r="B16" t="s" s="30">
+        <v>140</v>
+      </c>
       <c r="C16" t="s" s="39">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E16" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F16" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" ht="48.3" customHeight="1">
+      <c r="A17" s="33"/>
+      <c r="B17" t="s" s="30">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s" s="39">
+        <v>143</v>
+      </c>
+      <c r="D17" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E17" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F17" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" ht="78.3" customHeight="1">
+      <c r="A18" t="s" s="29">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s" s="30">
         <v>140</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F16" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s" s="27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" ht="48.3" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" t="s" s="31">
-        <v>141</v>
-      </c>
-      <c r="C17" t="s" s="39">
-        <v>142</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F17" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s" s="27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" ht="78.3" customHeight="1">
-      <c r="A18" t="s" s="30">
-        <v>143</v>
-      </c>
-      <c r="B18" t="s" s="31">
-        <v>139</v>
-      </c>
       <c r="C18" t="s" s="39">
-        <v>144</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34">
+        <v>145</v>
+      </c>
+      <c r="D18" t="s" s="31">
+        <v>23</v>
+      </c>
+      <c r="E18" s="32">
         <v>45967</v>
       </c>
       <c r="F18" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s" s="32">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="G18" t="s" s="31">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="18.3" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="20" ht="18.3" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" ht="18.3" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5632,350 +5895,386 @@
     </row>
     <row r="3" ht="48.5" customHeight="1">
       <c r="A3" t="s" s="25">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s" s="26">
-        <v>129</v>
-      </c>
-      <c r="C3" t="s" s="32">
-        <v>145</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29">
-        <v>45967</v>
-      </c>
-      <c r="F3" t="s" s="32">
-        <v>23</v>
+        <v>130</v>
+      </c>
+      <c r="C3" t="s" s="31">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E3" s="28">
+        <v>45967</v>
+      </c>
+      <c r="F3" t="s" s="31">
+        <v>24</v>
       </c>
       <c r="G3" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="33.3" customHeight="1">
-      <c r="A4" t="s" s="30">
-        <v>146</v>
-      </c>
-      <c r="B4" t="s" s="31">
-        <v>139</v>
+      <c r="A4" t="s" s="29">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s" s="30">
+        <v>140</v>
       </c>
       <c r="C4" t="s" s="39">
-        <v>147</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="29">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E4" s="28">
         <v>45967</v>
       </c>
       <c r="F4" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="63.3" customHeight="1">
-      <c r="A5" t="s" s="30">
-        <v>148</v>
-      </c>
-      <c r="B5" t="s" s="31">
+      <c r="A5" t="s" s="29">
         <v>149</v>
       </c>
+      <c r="B5" t="s" s="30">
+        <v>150</v>
+      </c>
       <c r="C5" t="s" s="39">
-        <v>150</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="29">
+        <v>151</v>
+      </c>
+      <c r="D5" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E5" s="28">
         <v>45967</v>
       </c>
       <c r="F5" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="48.3" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" t="s" s="31">
-        <v>151</v>
+      <c r="A6" s="33"/>
+      <c r="B6" t="s" s="30">
+        <v>152</v>
       </c>
       <c r="C6" t="s" s="39">
-        <v>152</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="29">
+        <v>153</v>
+      </c>
+      <c r="D6" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E6" s="28">
         <v>45967</v>
       </c>
       <c r="F6" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="48.3" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" t="s" s="31">
-        <v>153</v>
+      <c r="A7" s="33"/>
+      <c r="B7" t="s" s="30">
+        <v>154</v>
       </c>
       <c r="C7" t="s" s="39">
-        <v>154</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="29">
+        <v>155</v>
+      </c>
+      <c r="D7" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E7" s="28">
         <v>45967</v>
       </c>
       <c r="F7" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="48.3" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" t="s" s="31">
-        <v>155</v>
+      <c r="A8" s="33"/>
+      <c r="B8" t="s" s="30">
+        <v>156</v>
       </c>
       <c r="C8" t="s" s="39">
-        <v>156</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="29">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E8" s="28">
         <v>45967</v>
       </c>
       <c r="F8" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="48.3" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" t="s" s="31">
-        <v>157</v>
+      <c r="A9" s="33"/>
+      <c r="B9" t="s" s="30">
+        <v>158</v>
       </c>
       <c r="C9" t="s" s="39">
-        <v>158</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="29">
+        <v>159</v>
+      </c>
+      <c r="D9" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E9" s="28">
         <v>45967</v>
       </c>
       <c r="F9" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="48.3" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" t="s" s="31">
-        <v>159</v>
+      <c r="A10" s="33"/>
+      <c r="B10" t="s" s="30">
+        <v>160</v>
       </c>
       <c r="C10" t="s" s="39">
-        <v>160</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="29">
+        <v>161</v>
+      </c>
+      <c r="D10" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E10" s="28">
         <v>45967</v>
       </c>
       <c r="F10" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="48.3" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" t="s" s="31">
-        <v>161</v>
+      <c r="A11" s="33"/>
+      <c r="B11" t="s" s="30">
+        <v>162</v>
       </c>
       <c r="C11" t="s" s="39">
-        <v>162</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="29">
+        <v>163</v>
+      </c>
+      <c r="D11" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E11" s="28">
         <v>45967</v>
       </c>
       <c r="F11" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="48.3" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" t="s" s="31">
-        <v>163</v>
+      <c r="A12" s="33"/>
+      <c r="B12" t="s" s="30">
+        <v>164</v>
       </c>
       <c r="C12" t="s" s="39">
-        <v>164</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="29">
+        <v>165</v>
+      </c>
+      <c r="D12" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E12" s="28">
         <v>45967</v>
       </c>
       <c r="F12" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="93.3" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" t="s" s="31">
-        <v>165</v>
+      <c r="A13" s="33"/>
+      <c r="B13" t="s" s="30">
+        <v>166</v>
       </c>
       <c r="C13" t="s" s="39">
-        <v>166</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="29">
+        <v>167</v>
+      </c>
+      <c r="D13" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E13" s="28">
         <v>45967</v>
       </c>
       <c r="F13" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="33.3" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" t="s" s="31">
-        <v>167</v>
+      <c r="A14" s="33"/>
+      <c r="B14" t="s" s="30">
+        <v>168</v>
       </c>
       <c r="C14" t="s" s="39">
-        <v>168</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="29">
+        <v>169</v>
+      </c>
+      <c r="D14" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E14" s="28">
         <v>45967</v>
       </c>
       <c r="F14" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="48.3" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" t="s" s="31">
-        <v>169</v>
+      <c r="A15" s="33"/>
+      <c r="B15" t="s" s="30">
+        <v>170</v>
       </c>
       <c r="C15" t="s" s="39">
-        <v>170</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="29">
+        <v>171</v>
+      </c>
+      <c r="D15" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E15" s="28">
         <v>45967</v>
       </c>
       <c r="F15" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="33.3" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" t="s" s="31">
-        <v>171</v>
+      <c r="A16" s="33"/>
+      <c r="B16" t="s" s="30">
+        <v>172</v>
       </c>
       <c r="C16" t="s" s="39">
-        <v>172</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="29">
+        <v>173</v>
+      </c>
+      <c r="D16" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E16" s="28">
         <v>45967</v>
       </c>
       <c r="F16" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="63.3" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" t="s" s="31">
-        <v>173</v>
+      <c r="A17" s="33"/>
+      <c r="B17" t="s" s="30">
+        <v>174</v>
       </c>
       <c r="C17" t="s" s="39">
-        <v>174</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="29">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E17" s="28">
         <v>45967</v>
       </c>
       <c r="F17" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="33.3" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" t="s" s="31">
-        <v>175</v>
+      <c r="A18" s="33"/>
+      <c r="B18" t="s" s="30">
+        <v>176</v>
       </c>
       <c r="C18" t="s" s="39">
-        <v>176</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="29">
+        <v>177</v>
+      </c>
+      <c r="D18" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E18" s="28">
         <v>45967</v>
       </c>
       <c r="F18" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="48.3" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="B19" t="s" s="31">
-        <v>177</v>
+      <c r="A19" s="33"/>
+      <c r="B19" t="s" s="30">
+        <v>178</v>
       </c>
       <c r="C19" t="s" s="39">
-        <v>178</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="29">
+        <v>179</v>
+      </c>
+      <c r="D19" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E19" s="28">
         <v>45967</v>
       </c>
       <c r="F19" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="33.3" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" t="s" s="31">
+      <c r="A20" s="33"/>
+      <c r="B20" t="s" s="30">
+        <v>180</v>
+      </c>
+      <c r="C20" t="s" s="39">
         <v>179</v>
       </c>
-      <c r="C20" t="s" s="39">
-        <v>178</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34">
+      <c r="D20" t="s" s="31">
+        <v>23</v>
+      </c>
+      <c r="E20" s="32">
         <v>45967</v>
       </c>
       <c r="F20" t="s" s="39">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s" s="32">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="G20" t="s" s="31">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -6043,144 +6342,148 @@
     </row>
     <row r="3" ht="57.95" customHeight="1">
       <c r="A3" t="s" s="25">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s" s="26">
-        <v>129</v>
-      </c>
-      <c r="C3" t="s" s="32">
-        <v>180</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s" s="31">
+        <v>181</v>
+      </c>
+      <c r="D3" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="E3" s="28">
         <v>45971</v>
       </c>
-      <c r="F3" t="s" s="32">
-        <v>23</v>
+      <c r="F3" t="s" s="31">
+        <v>24</v>
       </c>
       <c r="G3" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="33.3" customHeight="1">
-      <c r="A4" t="s" s="30">
-        <v>181</v>
-      </c>
-      <c r="B4" t="s" s="31">
+      <c r="A4" t="s" s="29">
         <v>182</v>
       </c>
+      <c r="B4" t="s" s="30">
+        <v>183</v>
+      </c>
       <c r="C4" t="s" s="39">
-        <v>183</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34">
+        <v>184</v>
+      </c>
+      <c r="D4" t="s" s="31">
+        <v>23</v>
+      </c>
+      <c r="E4" s="32">
         <v>45971</v>
       </c>
       <c r="F4" t="s" s="39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="48.3" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="39"/>
-      <c r="D5" s="33"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="43"/>
       <c r="F5" s="39"/>
       <c r="G5" s="44"/>
     </row>
     <row r="6" ht="48.3" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="39"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="29"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="39"/>
       <c r="G6" s="44"/>
     </row>
     <row r="7" ht="48.3" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="39"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="39"/>
       <c r="G7" s="44"/>
     </row>
     <row r="8" ht="93.3" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="39"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="39"/>
       <c r="G8" s="44"/>
     </row>
     <row r="9" ht="33.3" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="39"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="29"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="39"/>
       <c r="G9" s="44"/>
     </row>
     <row r="10" ht="48.3" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="39"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="29"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="39"/>
       <c r="G10" s="44"/>
     </row>
     <row r="11" ht="33.3" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="39"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="29"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="39"/>
       <c r="G11" s="44"/>
     </row>
     <row r="12" ht="63.3" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="39"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="29"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="39"/>
       <c r="G12" s="44"/>
     </row>
     <row r="13" ht="33.3" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="39"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="29"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="39"/>
       <c r="G13" s="44"/>
     </row>
     <row r="14" ht="48.3" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="39"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="29"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="39"/>
       <c r="G14" s="44"/>
     </row>
     <row r="15" ht="33.3" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="39"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="39"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
